--- a/biology/Médecine/Alymphocytose/Alymphocytose.xlsx
+++ b/biology/Médecine/Alymphocytose/Alymphocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alymphocytose est une maladie héréditaire rare (1 naissance sur 75 000). 
 Elle se manifeste par des infections diverses et répétitives touchant différent organes (la peau, les intestins, l'appareil respiratoire). Il s'agit d'infections liées à la présence de virus, de bactéries ou de mycoses. En l'absence de traitements, ces infections entrainent souvent la mort au bout de 6 mois à un an.
